--- a/data/trans_dic/P20_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido menos unido/a con el resto de la sociedad</t>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>68,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>62,31%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,25; 58,52</t>
+          <t>33,84; 70,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,56; 54,66</t>
+          <t>38,63; 75,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,36; 45,72</t>
+          <t>55,18; 81,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,72; 49,61</t>
+          <t>52,81; 78,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,78; 48,65</t>
+          <t>50,01; 73,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,96; 49,08</t>
+          <t>51,03; 73,55</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>56,82%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,41; 61,53</t>
+          <t>30,35; 78,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,5; 53,54</t>
+          <t>34,7; 81,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,07; 42,15</t>
+          <t>50,03; 76,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,28; 53,59</t>
+          <t>39,22; 65,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,88; 47,58</t>
+          <t>45,3; 71,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 48,9</t>
+          <t>42,2; 69,14</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>70,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>53,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>76,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>74,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>60,28%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 38,88</t>
+          <t>57,91; 81,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,21; 46,59</t>
+          <t>40,62; 66,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 30,85</t>
+          <t>67,43; 84,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,45; 43,41</t>
+          <t>53,86; 73,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 31,33</t>
+          <t>67,1; 80,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,57; 42,1</t>
+          <t>52,15; 67,29</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>69,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>58,37%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 37,81</t>
+          <t>51,35; 72,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,13; 54,28</t>
+          <t>46,46; 67,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,49; 40,96</t>
+          <t>60,09; 78,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,9; 45,96</t>
+          <t>51,1; 69,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,0; 36,74</t>
+          <t>59,34; 73,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,52; 46,61</t>
+          <t>50,42; 65,62</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>61,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>68,12%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,2; 48,98</t>
+          <t>47,04; 72,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,32; 44,14</t>
+          <t>54,39; 78,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 30,77</t>
+          <t>67,47; 90,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,73; 48,23</t>
+          <t>55,66; 82,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,4; 38,01</t>
+          <t>59,4; 77,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,2; 43,37</t>
+          <t>59,61; 76,32</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>55,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>59,95%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,38; 54,1</t>
+          <t>49,68; 80,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,69; 60,78</t>
+          <t>36,5; 67,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,73; 50,32</t>
+          <t>40,04; 70,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,24; 55,24</t>
+          <t>51,33; 80,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,11; 48,83</t>
+          <t>49,05; 70,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,44; 54,61</t>
+          <t>48,95; 70,43</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>69,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>60,59%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,37; 41,85</t>
+          <t>54,34; 68,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,3; 44,97</t>
+          <t>50,39; 64,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,94; 34,18</t>
+          <t>64,59; 73,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35,12; 42,75</t>
+          <t>57,65; 67,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,54; 36,43</t>
+          <t>62,17; 69,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,38; 42,49</t>
+          <t>56,01; 64,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45646</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59974</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>80714</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90212</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>126360</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>150186</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29140; 60410</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>41340; 80523</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>64876; 95320</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>70760; 105759</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>101856; 149098</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>122991; 177280</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>78364</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>103102</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>83532</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>84868</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>161896</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>187970</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41524; 107211</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58556; 137715</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>66697; 101353</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>63565; 106540</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>122372; 193272</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>139604; 228718</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>98870</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>87375</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>169496</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>263174</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>256872</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>80916; 113679</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>65823; 107139</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>145245; 181212</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>142224; 192899</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>238277; 285957</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>222212; 286740</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>103033</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106247</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>133333</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>123665</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>236366</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>229913</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>83952; 119290</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>86744; 126206</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114945; 149645</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>105879; 143726</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>210532; 259160</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>198603; 258477</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84922</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>101298</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>83469</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>79000</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>168391</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>180298</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>65342; 100558</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>83242; 119576</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>69818; 93198</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>62123; 91636</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>143975; 187783</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>157777; 202002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>60992</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>56859</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>58879</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>87610</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>119871</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>144469</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>44827; 72982</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>39897; 74300</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42846; 75575</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>67576; 105408</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>96751; 139928</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>117945; 169705</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>471827</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>514855</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>604233</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>634852</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1076060</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1149707</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>410425; 513871</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>446933; 569254</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>560703; 642034</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>582624; 685694</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1009199; 1135884</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1062764; 1224086</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>